--- a/stock_historical_data/1mo/LIKHITHA.NS.xlsx
+++ b/stock_historical_data/1mo/LIKHITHA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B2" t="n">
-        <v>76.27500152587891</v>
+        <v>63.67008829125495</v>
       </c>
       <c r="C2" t="n">
-        <v>84.77500152587891</v>
+        <v>86.19950414816054</v>
       </c>
       <c r="D2" t="n">
-        <v>66.90000152587891</v>
+        <v>61.2212387415913</v>
       </c>
       <c r="E2" t="n">
-        <v>77.02500152587891</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75.72614288330078</v>
-      </c>
+        <v>73.04917907714844</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>6885238</v>
+        <v>11952234</v>
       </c>
       <c r="H2" t="n">
         <v>2020</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>44</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B3" t="n">
-        <v>77.5</v>
+        <v>76.27500152587891</v>
       </c>
       <c r="C3" t="n">
-        <v>86.09999847412109</v>
+        <v>84.77500152587891</v>
       </c>
       <c r="D3" t="n">
-        <v>73.32499694824219</v>
+        <v>66.90000152587891</v>
       </c>
       <c r="E3" t="n">
-        <v>82.55000305175781</v>
+        <v>77.02500152587891</v>
       </c>
       <c r="F3" t="n">
-        <v>81.15796661376953</v>
+        <v>75.72614288330078</v>
       </c>
       <c r="G3" t="n">
-        <v>9506504</v>
+        <v>6885238</v>
       </c>
       <c r="H3" t="n">
         <v>2020</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B4" t="n">
-        <v>83.5</v>
+        <v>77.5</v>
       </c>
       <c r="C4" t="n">
-        <v>106.9000015258789</v>
+        <v>86.09999847412109</v>
       </c>
       <c r="D4" t="n">
-        <v>82.17500305175781</v>
+        <v>73.32499694824219</v>
       </c>
       <c r="E4" t="n">
-        <v>96.34999847412109</v>
+        <v>82.55000305175781</v>
       </c>
       <c r="F4" t="n">
-        <v>94.72526550292969</v>
+        <v>81.15796661376953</v>
       </c>
       <c r="G4" t="n">
-        <v>14017748</v>
+        <v>9506504</v>
       </c>
       <c r="H4" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>83.5</v>
       </c>
       <c r="C5" t="n">
-        <v>149</v>
+        <v>106.9000015258789</v>
       </c>
       <c r="D5" t="n">
-        <v>96.57499694824219</v>
+        <v>82.17500305175781</v>
       </c>
       <c r="E5" t="n">
-        <v>137.3249969482422</v>
+        <v>96.34999847412109</v>
       </c>
       <c r="F5" t="n">
-        <v>135.0092926025391</v>
+        <v>94.72526550292969</v>
       </c>
       <c r="G5" t="n">
-        <v>12600110</v>
+        <v>14017748</v>
       </c>
       <c r="H5" t="n">
         <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B6" t="n">
-        <v>138.4499969482422</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>179.75</v>
+        <v>149</v>
       </c>
       <c r="D6" t="n">
-        <v>137.125</v>
+        <v>96.57499694824219</v>
       </c>
       <c r="E6" t="n">
-        <v>159.4499969482422</v>
+        <v>137.3249969482422</v>
       </c>
       <c r="F6" t="n">
-        <v>156.7612152099609</v>
+        <v>135.0092926025391</v>
       </c>
       <c r="G6" t="n">
-        <v>9512708</v>
+        <v>12600110</v>
       </c>
       <c r="H6" t="n">
         <v>2021</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B7" t="n">
-        <v>167.5</v>
+        <v>138.4499969482422</v>
       </c>
       <c r="C7" t="n">
-        <v>209.4750061035156</v>
+        <v>179.75</v>
       </c>
       <c r="D7" t="n">
-        <v>166.3000030517578</v>
+        <v>137.125</v>
       </c>
       <c r="E7" t="n">
-        <v>187.1000061035156</v>
+        <v>159.4499969482422</v>
       </c>
       <c r="F7" t="n">
-        <v>183.9449615478516</v>
+        <v>156.7612152099609</v>
       </c>
       <c r="G7" t="n">
-        <v>7151670</v>
+        <v>9512708</v>
       </c>
       <c r="H7" t="n">
         <v>2021</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B8" t="n">
-        <v>183.6000061035156</v>
+        <v>167.5</v>
       </c>
       <c r="C8" t="n">
-        <v>217.5</v>
+        <v>209.4750061035156</v>
       </c>
       <c r="D8" t="n">
-        <v>180.5249938964844</v>
+        <v>166.3000030517578</v>
       </c>
       <c r="E8" t="n">
-        <v>196.8000030517578</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="F8" t="n">
-        <v>193.4813995361328</v>
+        <v>183.9449615478516</v>
       </c>
       <c r="G8" t="n">
-        <v>4907920</v>
+        <v>7151670</v>
       </c>
       <c r="H8" t="n">
         <v>2021</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B9" t="n">
-        <v>197.375</v>
+        <v>183.6000061035156</v>
       </c>
       <c r="C9" t="n">
-        <v>240</v>
+        <v>217.5</v>
       </c>
       <c r="D9" t="n">
-        <v>189.0500030517578</v>
+        <v>180.5249938964844</v>
       </c>
       <c r="E9" t="n">
-        <v>203.25</v>
+        <v>196.8000030517578</v>
       </c>
       <c r="F9" t="n">
-        <v>199.8226318359375</v>
+        <v>193.4813995361328</v>
       </c>
       <c r="G9" t="n">
-        <v>10668986</v>
+        <v>4907920</v>
       </c>
       <c r="H9" t="n">
         <v>2021</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B10" t="n">
-        <v>204.3500061035156</v>
+        <v>197.375</v>
       </c>
       <c r="C10" t="n">
-        <v>229.1000061035156</v>
+        <v>240</v>
       </c>
       <c r="D10" t="n">
-        <v>191.8500061035156</v>
+        <v>189.0500030517578</v>
       </c>
       <c r="E10" t="n">
-        <v>197.5249938964844</v>
+        <v>203.25</v>
       </c>
       <c r="F10" t="n">
-        <v>194.1941528320312</v>
+        <v>199.8226318359375</v>
       </c>
       <c r="G10" t="n">
-        <v>6580316</v>
+        <v>10668986</v>
       </c>
       <c r="H10" t="n">
         <v>2021</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B11" t="n">
-        <v>195.6499938964844</v>
+        <v>204.3500061035156</v>
       </c>
       <c r="C11" t="n">
-        <v>209</v>
+        <v>229.1000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>157.0500030517578</v>
+        <v>191.8500061035156</v>
       </c>
       <c r="E11" t="n">
-        <v>188.5500030517578</v>
+        <v>197.5249938964844</v>
       </c>
       <c r="F11" t="n">
-        <v>185.3705139160156</v>
+        <v>194.1941528320312</v>
       </c>
       <c r="G11" t="n">
-        <v>6236660</v>
+        <v>6580316</v>
       </c>
       <c r="H11" t="n">
         <v>2021</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B12" t="n">
-        <v>194.8500061035156</v>
+        <v>195.6499938964844</v>
       </c>
       <c r="C12" t="n">
-        <v>214.5</v>
+        <v>209</v>
       </c>
       <c r="D12" t="n">
-        <v>177.125</v>
+        <v>157.0500030517578</v>
       </c>
       <c r="E12" t="n">
-        <v>188.2749938964844</v>
+        <v>188.5500030517578</v>
       </c>
       <c r="F12" t="n">
-        <v>185.9738159179688</v>
+        <v>185.3705139160156</v>
       </c>
       <c r="G12" t="n">
-        <v>5661620</v>
+        <v>6236660</v>
       </c>
       <c r="H12" t="n">
         <v>2021</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B13" t="n">
-        <v>183.0500030517578</v>
+        <v>194.8500061035156</v>
       </c>
       <c r="C13" t="n">
-        <v>201.5</v>
+        <v>214.5</v>
       </c>
       <c r="D13" t="n">
-        <v>174.5</v>
+        <v>177.125</v>
       </c>
       <c r="E13" t="n">
-        <v>178.2250061035156</v>
+        <v>188.2749938964844</v>
       </c>
       <c r="F13" t="n">
-        <v>176.0466613769531</v>
+        <v>185.9738159179688</v>
       </c>
       <c r="G13" t="n">
-        <v>2563848</v>
+        <v>5661620</v>
       </c>
       <c r="H13" t="n">
         <v>2021</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B14" t="n">
-        <v>178.25</v>
+        <v>183.0500030517578</v>
       </c>
       <c r="C14" t="n">
-        <v>197.9750061035156</v>
+        <v>201.5</v>
       </c>
       <c r="D14" t="n">
-        <v>155.0249938964844</v>
+        <v>174.5</v>
       </c>
       <c r="E14" t="n">
-        <v>159.9499969482422</v>
+        <v>178.2250061035156</v>
       </c>
       <c r="F14" t="n">
-        <v>157.9949951171875</v>
+        <v>176.0466613769531</v>
       </c>
       <c r="G14" t="n">
-        <v>2069166</v>
+        <v>2563848</v>
       </c>
       <c r="H14" t="n">
         <v>2021</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B15" t="n">
-        <v>163.75</v>
+        <v>178.25</v>
       </c>
       <c r="C15" t="n">
-        <v>182.4250030517578</v>
+        <v>197.9750061035156</v>
       </c>
       <c r="D15" t="n">
-        <v>157.1000061035156</v>
+        <v>155.0249938964844</v>
       </c>
       <c r="E15" t="n">
-        <v>172.5</v>
+        <v>159.9499969482422</v>
       </c>
       <c r="F15" t="n">
-        <v>171.1597137451172</v>
+        <v>157.9949951171875</v>
       </c>
       <c r="G15" t="n">
-        <v>1536806</v>
+        <v>2069166</v>
       </c>
       <c r="H15" t="n">
         <v>2021</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B16" t="n">
-        <v>184</v>
+        <v>163.75</v>
       </c>
       <c r="C16" t="n">
-        <v>189</v>
+        <v>182.4250030517578</v>
       </c>
       <c r="D16" t="n">
-        <v>150.3999938964844</v>
+        <v>157.1000061035156</v>
       </c>
       <c r="E16" t="n">
-        <v>174.8000030517578</v>
+        <v>172.5</v>
       </c>
       <c r="F16" t="n">
-        <v>173.4418487548828</v>
+        <v>171.1597137451172</v>
       </c>
       <c r="G16" t="n">
-        <v>2785210</v>
+        <v>1536806</v>
       </c>
       <c r="H16" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B17" t="n">
-        <v>176.3500061035156</v>
+        <v>184</v>
       </c>
       <c r="C17" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D17" t="n">
-        <v>140</v>
+        <v>150.3999938964844</v>
       </c>
       <c r="E17" t="n">
-        <v>150.7749938964844</v>
+        <v>174.8000030517578</v>
       </c>
       <c r="F17" t="n">
-        <v>149.603515625</v>
+        <v>173.4418487548828</v>
       </c>
       <c r="G17" t="n">
-        <v>2460506</v>
+        <v>2785210</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B18" t="n">
+        <v>176.3500061035156</v>
+      </c>
+      <c r="C18" t="n">
+        <v>191</v>
+      </c>
+      <c r="D18" t="n">
+        <v>140</v>
+      </c>
+      <c r="E18" t="n">
         <v>150.7749938964844</v>
       </c>
-      <c r="C18" t="n">
-        <v>159.6999969482422</v>
-      </c>
-      <c r="D18" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>144.7250061035156</v>
-      </c>
       <c r="F18" t="n">
-        <v>143.6005249023438</v>
+        <v>149.603515625</v>
       </c>
       <c r="G18" t="n">
-        <v>1724818</v>
+        <v>2460506</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B19" t="n">
-        <v>145</v>
+        <v>150.7749938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>171.5</v>
+        <v>159.6999969482422</v>
       </c>
       <c r="D19" t="n">
-        <v>145</v>
+        <v>140.5</v>
       </c>
       <c r="E19" t="n">
-        <v>151.6499938964844</v>
+        <v>144.7250061035156</v>
       </c>
       <c r="F19" t="n">
-        <v>150.4717102050781</v>
+        <v>143.6005249023438</v>
       </c>
       <c r="G19" t="n">
-        <v>1426592</v>
+        <v>1724818</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B20" t="n">
-        <v>151.5</v>
+        <v>145</v>
       </c>
       <c r="C20" t="n">
-        <v>153.3500061035156</v>
+        <v>171.5</v>
       </c>
       <c r="D20" t="n">
-        <v>127.0250015258789</v>
+        <v>145</v>
       </c>
       <c r="E20" t="n">
-        <v>141.75</v>
+        <v>151.6499938964844</v>
       </c>
       <c r="F20" t="n">
-        <v>140.6486358642578</v>
+        <v>150.4717102050781</v>
       </c>
       <c r="G20" t="n">
-        <v>1779530</v>
+        <v>1426592</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B21" t="n">
-        <v>143</v>
+        <v>151.5</v>
       </c>
       <c r="C21" t="n">
-        <v>147</v>
+        <v>153.3500061035156</v>
       </c>
       <c r="D21" t="n">
-        <v>118.2750015258789</v>
+        <v>127.0250015258789</v>
       </c>
       <c r="E21" t="n">
-        <v>136.1750030517578</v>
+        <v>141.75</v>
       </c>
       <c r="F21" t="n">
-        <v>135.1169586181641</v>
+        <v>140.6486358642578</v>
       </c>
       <c r="G21" t="n">
-        <v>1571136</v>
+        <v>1779530</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B22" t="n">
+        <v>143</v>
+      </c>
+      <c r="C22" t="n">
+        <v>147</v>
+      </c>
+      <c r="D22" t="n">
+        <v>118.2750015258789</v>
+      </c>
+      <c r="E22" t="n">
         <v>136.1750030517578</v>
       </c>
-      <c r="C22" t="n">
-        <v>157</v>
-      </c>
-      <c r="D22" t="n">
-        <v>135.2749938964844</v>
-      </c>
-      <c r="E22" t="n">
-        <v>141.9750061035156</v>
-      </c>
       <c r="F22" t="n">
-        <v>140.8718872070312</v>
+        <v>135.1169586181641</v>
       </c>
       <c r="G22" t="n">
-        <v>2771706</v>
+        <v>1571136</v>
       </c>
       <c r="H22" t="n">
         <v>2022</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B23" t="n">
+        <v>136.1750030517578</v>
+      </c>
+      <c r="C23" t="n">
+        <v>157</v>
+      </c>
+      <c r="D23" t="n">
+        <v>135.2749938964844</v>
+      </c>
+      <c r="E23" t="n">
         <v>141.9750061035156</v>
       </c>
-      <c r="C23" t="n">
-        <v>169.9750061035156</v>
-      </c>
-      <c r="D23" t="n">
-        <v>132.7749938964844</v>
-      </c>
-      <c r="E23" t="n">
-        <v>167.625</v>
-      </c>
       <c r="F23" t="n">
-        <v>166.3226013183594</v>
+        <v>140.8718872070312</v>
       </c>
       <c r="G23" t="n">
-        <v>5265884</v>
+        <v>2771706</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B24" t="n">
-        <v>166.4750061035156</v>
+        <v>141.9750061035156</v>
       </c>
       <c r="C24" t="n">
-        <v>190</v>
+        <v>169.9750061035156</v>
       </c>
       <c r="D24" t="n">
-        <v>164.3249969482422</v>
+        <v>132.7749938964844</v>
       </c>
       <c r="E24" t="n">
-        <v>188.1750030517578</v>
+        <v>167.625</v>
       </c>
       <c r="F24" t="n">
-        <v>186.7129364013672</v>
+        <v>166.3226013183594</v>
       </c>
       <c r="G24" t="n">
-        <v>6927334</v>
+        <v>5265884</v>
       </c>
       <c r="H24" t="n">
         <v>2022</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B25" t="n">
-        <v>189</v>
+        <v>166.4750061035156</v>
       </c>
       <c r="C25" t="n">
-        <v>198.4499969482422</v>
+        <v>190</v>
       </c>
       <c r="D25" t="n">
-        <v>177.0500030517578</v>
+        <v>164.3249969482422</v>
       </c>
       <c r="E25" t="n">
-        <v>189.8500061035156</v>
+        <v>188.1750030517578</v>
       </c>
       <c r="F25" t="n">
-        <v>188.9015502929688</v>
+        <v>186.7129364013672</v>
       </c>
       <c r="G25" t="n">
-        <v>3860822</v>
+        <v>6927334</v>
       </c>
       <c r="H25" t="n">
         <v>2022</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B26" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n">
-        <v>241</v>
+        <v>198.4499969482422</v>
       </c>
       <c r="D26" t="n">
-        <v>188.3000030517578</v>
+        <v>177.0500030517578</v>
       </c>
       <c r="E26" t="n">
-        <v>234.875</v>
+        <v>189.8500061035156</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7015991210938</v>
+        <v>188.9015502929688</v>
       </c>
       <c r="G26" t="n">
-        <v>12678222</v>
+        <v>3860822</v>
       </c>
       <c r="H26" t="n">
         <v>2022</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B27" t="n">
-        <v>239.1999969482422</v>
+        <v>190</v>
       </c>
       <c r="C27" t="n">
-        <v>273.3500061035156</v>
+        <v>241</v>
       </c>
       <c r="D27" t="n">
-        <v>198</v>
+        <v>188.3000030517578</v>
       </c>
       <c r="E27" t="n">
-        <v>226.0500030517578</v>
+        <v>234.875</v>
       </c>
       <c r="F27" t="n">
-        <v>224.9207000732422</v>
+        <v>233.7015991210938</v>
       </c>
       <c r="G27" t="n">
-        <v>22836035</v>
+        <v>12678222</v>
       </c>
       <c r="H27" t="n">
         <v>2022</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B28" t="n">
-        <v>227.8500061035156</v>
+        <v>239.1999969482422</v>
       </c>
       <c r="C28" t="n">
-        <v>247.9499969482422</v>
+        <v>273.3500061035156</v>
       </c>
       <c r="D28" t="n">
-        <v>211.1000061035156</v>
+        <v>198</v>
       </c>
       <c r="E28" t="n">
-        <v>228.3500061035156</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="F28" t="n">
-        <v>227.2092132568359</v>
+        <v>224.9207000732422</v>
       </c>
       <c r="G28" t="n">
-        <v>4008636</v>
+        <v>22836035</v>
       </c>
       <c r="H28" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B29" t="n">
-        <v>230</v>
+        <v>227.8500061035156</v>
       </c>
       <c r="C29" t="n">
-        <v>268.8500061035156</v>
+        <v>247.9499969482422</v>
       </c>
       <c r="D29" t="n">
-        <v>215.6999969482422</v>
+        <v>211.1000061035156</v>
       </c>
       <c r="E29" t="n">
-        <v>228.3999938964844</v>
+        <v>228.3500061035156</v>
       </c>
       <c r="F29" t="n">
-        <v>227.2589416503906</v>
+        <v>227.2092132568359</v>
       </c>
       <c r="G29" t="n">
-        <v>6041121</v>
+        <v>4008636</v>
       </c>
       <c r="H29" t="n">
         <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B30" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C30" t="n">
-        <v>252</v>
+        <v>268.8500061035156</v>
       </c>
       <c r="D30" t="n">
-        <v>224.3000030517578</v>
+        <v>215.6999969482422</v>
       </c>
       <c r="E30" t="n">
-        <v>235.5</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="F30" t="n">
-        <v>234.323486328125</v>
+        <v>227.2589416503906</v>
       </c>
       <c r="G30" t="n">
-        <v>3209316</v>
+        <v>6041121</v>
       </c>
       <c r="H30" t="n">
         <v>2023</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B31" t="n">
-        <v>238.6499938964844</v>
+        <v>232</v>
       </c>
       <c r="C31" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="D31" t="n">
-        <v>236.8999938964844</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="E31" t="n">
-        <v>285.5499877929688</v>
+        <v>235.5</v>
       </c>
       <c r="F31" t="n">
-        <v>284.1234436035156</v>
+        <v>234.323486328125</v>
       </c>
       <c r="G31" t="n">
-        <v>6130292</v>
+        <v>3209316</v>
       </c>
       <c r="H31" t="n">
         <v>2023</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B32" t="n">
+        <v>238.6499938964844</v>
+      </c>
+      <c r="C32" t="n">
+        <v>306</v>
+      </c>
+      <c r="D32" t="n">
+        <v>236.8999938964844</v>
+      </c>
+      <c r="E32" t="n">
         <v>285.5499877929688</v>
       </c>
-      <c r="C32" t="n">
-        <v>315.8999938964844</v>
-      </c>
-      <c r="D32" t="n">
-        <v>263</v>
-      </c>
-      <c r="E32" t="n">
-        <v>268.8999938964844</v>
-      </c>
       <c r="F32" t="n">
-        <v>267.5566101074219</v>
+        <v>284.1234436035156</v>
       </c>
       <c r="G32" t="n">
-        <v>7870371</v>
+        <v>6130292</v>
       </c>
       <c r="H32" t="n">
         <v>2023</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2164,36 +2156,36 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B33" t="n">
-        <v>270.0499877929688</v>
+        <v>285.5499877929688</v>
       </c>
       <c r="C33" t="n">
-        <v>278.0499877929688</v>
+        <v>315.8999938964844</v>
       </c>
       <c r="D33" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E33" t="n">
-        <v>259.8500061035156</v>
+        <v>268.8999938964844</v>
       </c>
       <c r="F33" t="n">
-        <v>258.5518493652344</v>
+        <v>267.5566101074219</v>
       </c>
       <c r="G33" t="n">
-        <v>2943395</v>
+        <v>7870371</v>
       </c>
       <c r="H33" t="n">
         <v>2023</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B34" t="n">
-        <v>261.0499877929688</v>
+        <v>270.0499877929688</v>
       </c>
       <c r="C34" t="n">
-        <v>302.2999877929688</v>
+        <v>278.0499877929688</v>
       </c>
       <c r="D34" t="n">
-        <v>250.3999938964844</v>
+        <v>251</v>
       </c>
       <c r="E34" t="n">
-        <v>291.7999877929688</v>
+        <v>259.8500061035156</v>
       </c>
       <c r="F34" t="n">
-        <v>290.3421936035156</v>
+        <v>258.5518493652344</v>
       </c>
       <c r="G34" t="n">
-        <v>5076253</v>
+        <v>2943395</v>
       </c>
       <c r="H34" t="n">
         <v>2023</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B35" t="n">
-        <v>293</v>
+        <v>261.0499877929688</v>
       </c>
       <c r="C35" t="n">
-        <v>327.5</v>
+        <v>302.2999877929688</v>
       </c>
       <c r="D35" t="n">
-        <v>267.1000061035156</v>
+        <v>250.3999938964844</v>
       </c>
       <c r="E35" t="n">
-        <v>304.4500122070312</v>
+        <v>291.7999877929688</v>
       </c>
       <c r="F35" t="n">
-        <v>302.9290466308594</v>
+        <v>290.3421936035156</v>
       </c>
       <c r="G35" t="n">
-        <v>7055191</v>
+        <v>5076253</v>
       </c>
       <c r="H35" t="n">
         <v>2023</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B36" t="n">
-        <v>304.2999877929688</v>
+        <v>293</v>
       </c>
       <c r="C36" t="n">
-        <v>343</v>
+        <v>327.5</v>
       </c>
       <c r="D36" t="n">
-        <v>293</v>
+        <v>267.1000061035156</v>
       </c>
       <c r="E36" t="n">
-        <v>337.7000122070312</v>
+        <v>304.4500122070312</v>
       </c>
       <c r="F36" t="n">
-        <v>336.0129089355469</v>
+        <v>302.9290466308594</v>
       </c>
       <c r="G36" t="n">
-        <v>6180587</v>
+        <v>7055191</v>
       </c>
       <c r="H36" t="n">
         <v>2023</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B37" t="n">
+        <v>304.2999877929688</v>
+      </c>
+      <c r="C37" t="n">
+        <v>343</v>
+      </c>
+      <c r="D37" t="n">
+        <v>293</v>
+      </c>
+      <c r="E37" t="n">
         <v>337.7000122070312</v>
       </c>
-      <c r="C37" t="n">
-        <v>339.7000122070312</v>
-      </c>
-      <c r="D37" t="n">
-        <v>282.1000061035156</v>
-      </c>
-      <c r="E37" t="n">
-        <v>300.1000061035156</v>
-      </c>
       <c r="F37" t="n">
-        <v>300.1000061035156</v>
+        <v>336.0129089355469</v>
       </c>
       <c r="G37" t="n">
-        <v>2616166</v>
+        <v>6180587</v>
       </c>
       <c r="H37" t="n">
         <v>2023</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B38" t="n">
-        <v>301</v>
+        <v>337.7000122070312</v>
       </c>
       <c r="C38" t="n">
-        <v>327</v>
+        <v>339.7000122070312</v>
       </c>
       <c r="D38" t="n">
-        <v>282</v>
+        <v>282.1000061035156</v>
       </c>
       <c r="E38" t="n">
-        <v>284.7999877929688</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="F38" t="n">
-        <v>284.7999877929688</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="G38" t="n">
-        <v>2905564</v>
+        <v>2616166</v>
       </c>
       <c r="H38" t="n">
         <v>2023</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B39" t="n">
-        <v>286.6499938964844</v>
+        <v>301</v>
       </c>
       <c r="C39" t="n">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="D39" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E39" t="n">
-        <v>279.7000122070312</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="F39" t="n">
-        <v>279.7000122070312</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="G39" t="n">
-        <v>2908129</v>
+        <v>2905564</v>
       </c>
       <c r="H39" t="n">
         <v>2023</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B40" t="n">
-        <v>281</v>
+        <v>286.6499938964844</v>
       </c>
       <c r="C40" t="n">
-        <v>291.5</v>
+        <v>297</v>
       </c>
       <c r="D40" t="n">
-        <v>254.8000030517578</v>
+        <v>277</v>
       </c>
       <c r="E40" t="n">
-        <v>258.8999938964844</v>
+        <v>279.7000122070312</v>
       </c>
       <c r="F40" t="n">
-        <v>258.8999938964844</v>
+        <v>279.7000122070312</v>
       </c>
       <c r="G40" t="n">
-        <v>3934889</v>
+        <v>2908129</v>
       </c>
       <c r="H40" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,89 +2580,89 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B41" t="n">
-        <v>260.5</v>
+        <v>281</v>
       </c>
       <c r="C41" t="n">
-        <v>291.8999938964844</v>
+        <v>291.5</v>
       </c>
       <c r="D41" t="n">
-        <v>249</v>
+        <v>254.8000030517578</v>
       </c>
       <c r="E41" t="n">
-        <v>263</v>
+        <v>258.8999938964844</v>
       </c>
       <c r="F41" t="n">
-        <v>263</v>
+        <v>258.8999938964844</v>
       </c>
       <c r="G41" t="n">
-        <v>4516287</v>
+        <v>3934889</v>
       </c>
       <c r="H41" t="n">
         <v>2024</v>
       </c>
       <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B42" t="n">
-        <v>265.1499938964844</v>
+        <v>260.5</v>
       </c>
       <c r="C42" t="n">
-        <v>272.8999938964844</v>
+        <v>291.8999938964844</v>
       </c>
       <c r="D42" t="n">
-        <v>230.1499938964844</v>
+        <v>249</v>
       </c>
       <c r="E42" t="n">
-        <v>232.3999938964844</v>
+        <v>263</v>
       </c>
       <c r="F42" t="n">
-        <v>232.3999938964844</v>
+        <v>263</v>
       </c>
       <c r="G42" t="n">
-        <v>2928717</v>
+        <v>4516287</v>
       </c>
       <c r="H42" t="n">
         <v>2024</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B43" t="n">
-        <v>235.25</v>
+        <v>265.1499938964844</v>
       </c>
       <c r="C43" t="n">
-        <v>366</v>
+        <v>272.8999938964844</v>
       </c>
       <c r="D43" t="n">
-        <v>235.25</v>
+        <v>230.1499938964844</v>
       </c>
       <c r="E43" t="n">
-        <v>351.2000122070312</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="F43" t="n">
-        <v>351.2000122070312</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="G43" t="n">
-        <v>13603935</v>
+        <v>2928717</v>
       </c>
       <c r="H43" t="n">
         <v>2024</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B44" t="n">
+        <v>235.25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>366</v>
+      </c>
+      <c r="D44" t="n">
+        <v>235.25</v>
+      </c>
+      <c r="E44" t="n">
         <v>351.2000122070312</v>
       </c>
-      <c r="C44" t="n">
-        <v>382.2999877929688</v>
-      </c>
-      <c r="D44" t="n">
-        <v>330</v>
-      </c>
-      <c r="E44" t="n">
-        <v>340.8999938964844</v>
-      </c>
       <c r="F44" t="n">
-        <v>340.8999938964844</v>
+        <v>351.2000122070312</v>
       </c>
       <c r="G44" t="n">
-        <v>6591791</v>
+        <v>13603935</v>
       </c>
       <c r="H44" t="n">
         <v>2024</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,56 +2797,514 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B45" t="n">
-        <v>374</v>
+        <v>351.2000122070312</v>
       </c>
       <c r="C45" t="n">
-        <v>411.7999877929688</v>
+        <v>382.2999877929688</v>
       </c>
       <c r="D45" t="n">
-        <v>294.8999938964844</v>
+        <v>330</v>
       </c>
       <c r="E45" t="n">
-        <v>407.8999938964844</v>
+        <v>340.8999938964844</v>
       </c>
       <c r="F45" t="n">
-        <v>407.8999938964844</v>
+        <v>340.8999938964844</v>
       </c>
       <c r="G45" t="n">
-        <v>4199501</v>
+        <v>6591791</v>
       </c>
       <c r="H45" t="n">
         <v>2024</v>
       </c>
       <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>18</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B46" t="n">
+        <v>374</v>
+      </c>
+      <c r="C46" t="n">
+        <v>411.7999877929688</v>
+      </c>
+      <c r="D46" t="n">
+        <v>294.8999938964844</v>
+      </c>
+      <c r="E46" t="n">
+        <v>407.8999938964844</v>
+      </c>
+      <c r="F46" t="n">
+        <v>407.8999938964844</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4199501</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
         <v>6</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>22</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B47" t="n">
+        <v>457.3205051165525</v>
+      </c>
+      <c r="C47" t="n">
+        <v>492.1924390579018</v>
+      </c>
+      <c r="D47" t="n">
+        <v>403.5678976360215</v>
+      </c>
+      <c r="E47" t="n">
+        <v>444.3680725097656</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>6235360</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>27</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B48" t="n">
+        <v>446.3607690955469</v>
+      </c>
+      <c r="C48" t="n">
+        <v>463.9960170011965</v>
+      </c>
+      <c r="D48" t="n">
+        <v>374.1758513060107</v>
+      </c>
+      <c r="E48" t="n">
+        <v>439.6852722167969</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>4811886</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>31</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B49" t="n">
+        <v>440.8808753915183</v>
+      </c>
+      <c r="C49" t="n">
+        <v>447.0582015141715</v>
+      </c>
+      <c r="D49" t="n">
+        <v>374.2256711592713</v>
+      </c>
+      <c r="E49" t="n">
+        <v>386.1817626953125</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>2066592</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>35</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B50" t="n">
+        <v>388</v>
+      </c>
+      <c r="C50" t="n">
+        <v>397</v>
+      </c>
+      <c r="D50" t="n">
+        <v>338</v>
+      </c>
+      <c r="E50" t="n">
+        <v>366.75</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1790493</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>40</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B51" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="C51" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="D51" t="n">
+        <v>331.0499877929688</v>
+      </c>
+      <c r="E51" t="n">
+        <v>361.1499938964844</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>938775</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>44</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B52" t="n">
+        <v>360</v>
+      </c>
+      <c r="C52" t="n">
+        <v>404.2999877929688</v>
+      </c>
+      <c r="D52" t="n">
+        <v>345.0499877929688</v>
+      </c>
+      <c r="E52" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>2667134</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>48</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B53" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>371.6499938964844</v>
+      </c>
+      <c r="D53" t="n">
+        <v>294</v>
+      </c>
+      <c r="E53" t="n">
+        <v>319.1499938964844</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>1399514</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B54" t="n">
+        <v>318</v>
+      </c>
+      <c r="C54" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="D54" t="n">
+        <v>247</v>
+      </c>
+      <c r="E54" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1176843</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B55" t="n">
+        <v>253.6999969482422</v>
+      </c>
+      <c r="C55" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="D55" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="E55" t="n">
+        <v>269.5499877929688</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>3091391</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
